--- a/medicine/Premiers secours et secourisme/911_(numéro_d'appel_d'urgence)/911_(numéro_d'appel_d'urgence).xlsx
+++ b/medicine/Premiers secours et secourisme/911_(numéro_d'appel_d'urgence)/911_(numéro_d'appel_d'urgence).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>911_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>911_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 911 (prononcé, de manière équivalente, « neuf, un, un » en français canadien et nine one one en anglais) est un numéro d'appel d'urgence nord-américain depuis 1968. Il fait partie du plan de numérotation nord-américain et est l'un des huit codes N11[2],[3].
-En 2020, il est appelé environ 650 000 fois par jour aux États-Unis[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 911 (prononcé, de manière équivalente, « neuf, un, un » en français canadien et nine one one en anglais) est un numéro d'appel d'urgence nord-américain depuis 1968. Il fait partie du plan de numérotation nord-américain et est l'un des huit codes N11,.
+En 2020, il est appelé environ 650 000 fois par jour aux États-Unis.
 En Europe, le 112 a été retenu comme numéro d'appel d'urgence, même si les pays n'ont pas toujours supprimé leur numéro historique.[pertinence contestée]
 </t>
         </is>
